--- a/logo.xlsx
+++ b/logo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fousseynou\Google Drive\DS4AFRICA\dsprojects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{45025D69-A069-467B-BEC8-16A6593BC7B2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9A58FFB1-4DEB-4CF2-B06E-603073FEC83D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13275" xr2:uid="{C9B381DC-5684-4AA6-81B5-BD0E8C231672}"/>
   </bookViews>
@@ -147,7 +147,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -157,12 +157,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -196,10 +190,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -249,7 +243,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$E$7:$F$9" spid="_x0000_s1031"/>
+                  <a14:cameraTool cellRange="$E$7:$F$9" spid="_x0000_s1035"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -314,7 +308,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$A$1:$A$3" spid="_x0000_s1032"/>
+                  <a14:cameraTool cellRange="$A$1:$A$3" spid="_x0000_s1036"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -657,7 +651,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,17 +662,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
     </row>
